--- a/udp_details_attack_email.xlsx
+++ b/udp_details_attack_email.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="31">
   <si>
     <t>Packet Timestamp</t>
   </si>
@@ -61,37 +61,31 @@
     <t>192.168.43.135</t>
   </si>
   <si>
-    <t>142.251.10.95</t>
-  </si>
-  <si>
-    <t>74.125.130.95</t>
+    <t>142.251.175.95</t>
   </si>
   <si>
     <t>192.168.43.1</t>
   </si>
   <si>
-    <t>162.159.200.123</t>
-  </si>
-  <si>
-    <t>45804</t>
+    <t>64.233.170.84</t>
+  </si>
+  <si>
+    <t>58828</t>
   </si>
   <si>
     <t>443</t>
   </si>
   <si>
-    <t>51727</t>
-  </si>
-  <si>
-    <t>54116</t>
+    <t>38977</t>
+  </si>
+  <si>
+    <t>31176</t>
   </si>
   <si>
     <t>53</t>
   </si>
   <si>
-    <t>48740</t>
-  </si>
-  <si>
-    <t>123</t>
+    <t>48226</t>
   </si>
   <si>
     <t>Unknown</t>
@@ -100,9 +94,6 @@
     <t>DNS</t>
   </si>
   <si>
-    <t>NTP</t>
-  </si>
-  <si>
     <t>64</t>
   </si>
   <si>
@@ -110,9 +101,6 @@
   </si>
   <si>
     <t>52</t>
-  </si>
-  <si>
-    <t>55</t>
   </si>
   <si>
     <t>Linux</t>
@@ -480,7 +468,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M39"/>
+  <dimension ref="A1:M41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -529,7 +517,7 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="2">
-        <v>45555.73188394026</v>
+        <v>45555.75029421174</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
@@ -538,25 +526,25 @@
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
         <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" t="s">
         <v>26</v>
       </c>
-      <c r="I2" t="s">
-        <v>29</v>
-      </c>
       <c r="J2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K2">
         <v>71</v>
@@ -565,12 +553,12 @@
         <v>63</v>
       </c>
       <c r="M2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="2">
-        <v>45555.73188489379</v>
+        <v>45555.75029514465</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
@@ -579,162 +567,162 @@
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F3" t="s">
         <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="J3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K3">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L3">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="2">
-        <v>45555.73194513068</v>
+        <v>45555.75029544545</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
       </c>
       <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" t="s">
         <v>26</v>
       </c>
-      <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" t="s">
-        <v>23</v>
-      </c>
       <c r="J4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K4">
-        <v>122</v>
+        <v>79</v>
       </c>
       <c r="L4">
-        <v>114</v>
+        <v>71</v>
       </c>
       <c r="M4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="2">
-        <v>45555.73194513212</v>
+        <v>45555.75029544714</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" t="s">
         <v>26</v>
       </c>
-      <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" t="s">
-        <v>23</v>
-      </c>
       <c r="J5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K5">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="L5">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="M5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="2">
-        <v>45555.7319452193</v>
+        <v>45555.75029671118</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G6" t="s">
         <v>20</v>
       </c>
       <c r="H6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" t="s">
         <v>26</v>
       </c>
-      <c r="I6" t="s">
-        <v>29</v>
-      </c>
       <c r="J6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K6">
-        <v>1292</v>
+        <v>95</v>
       </c>
       <c r="L6">
-        <v>1284</v>
+        <v>87</v>
       </c>
       <c r="M6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="2">
-        <v>45555.73194522032</v>
+        <v>45555.75029698759</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
@@ -743,25 +731,25 @@
         <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" t="s">
         <v>26</v>
       </c>
-      <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" t="s">
-        <v>29</v>
-      </c>
       <c r="J7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K7">
         <v>1292</v>
@@ -770,12 +758,12 @@
         <v>1284</v>
       </c>
       <c r="M7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="2">
-        <v>45555.7319452244</v>
+        <v>45555.75029698873</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
@@ -784,39 +772,39 @@
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" t="s">
         <v>26</v>
       </c>
-      <c r="F8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" t="s">
-        <v>26</v>
-      </c>
-      <c r="I8" t="s">
-        <v>29</v>
-      </c>
       <c r="J8" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K8">
-        <v>123</v>
+        <v>1292</v>
       </c>
       <c r="L8">
-        <v>115</v>
+        <v>1284</v>
       </c>
       <c r="M8" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="2">
-        <v>45555.73194523027</v>
+        <v>45555.75029699377</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
@@ -825,148 +813,148 @@
         <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" t="s">
         <v>26</v>
       </c>
-      <c r="F9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I9" t="s">
-        <v>29</v>
-      </c>
       <c r="J9" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K9">
-        <v>565</v>
+        <v>121</v>
       </c>
       <c r="L9">
-        <v>557</v>
+        <v>113</v>
       </c>
       <c r="M9" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="2">
-        <v>45555.73194525549</v>
+        <v>45555.75029752656</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D10" t="s">
         <v>19</v>
       </c>
       <c r="E10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J10" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K10">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="L10">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="M10" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="2">
-        <v>45555.73194575627</v>
+        <v>45555.75029752839</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F11" t="s">
         <v>14</v>
       </c>
       <c r="G11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J11" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K11">
-        <v>82</v>
+        <v>1292</v>
       </c>
       <c r="L11">
-        <v>74</v>
+        <v>1284</v>
       </c>
       <c r="M11" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="2">
-        <v>45555.73194575805</v>
+        <v>45555.75029755383</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F12" t="s">
         <v>14</v>
       </c>
       <c r="G12" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I12" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J12" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K12">
         <v>1292</v>
@@ -975,176 +963,176 @@
         <v>1284</v>
       </c>
       <c r="M12" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="2">
-        <v>45555.73194578029</v>
+        <v>45555.75029755411</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F13" t="s">
         <v>14</v>
       </c>
       <c r="G13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I13" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J13" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K13">
-        <v>1292</v>
+        <v>349</v>
       </c>
       <c r="L13">
-        <v>1284</v>
+        <v>341</v>
       </c>
       <c r="M13" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="2">
-        <v>45555.7319457922</v>
+        <v>45555.75029755875</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F14" t="s">
         <v>14</v>
       </c>
       <c r="G14" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I14" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J14" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K14">
-        <v>352</v>
+        <v>985</v>
       </c>
       <c r="L14">
-        <v>344</v>
+        <v>977</v>
       </c>
       <c r="M14" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="2">
-        <v>45555.7319457928</v>
+        <v>45555.75029756006</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F15" t="s">
         <v>14</v>
       </c>
       <c r="G15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I15" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J15" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K15">
-        <v>982</v>
+        <v>74</v>
       </c>
       <c r="L15">
-        <v>974</v>
+        <v>66</v>
       </c>
       <c r="M15" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="2">
-        <v>45555.73194579384</v>
+        <v>45555.75029756287</v>
       </c>
       <c r="B16" t="s">
         <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" t="s">
+        <v>24</v>
+      </c>
+      <c r="I16" t="s">
         <v>26</v>
       </c>
-      <c r="F16" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H16" t="s">
-        <v>26</v>
-      </c>
-      <c r="I16" t="s">
-        <v>31</v>
-      </c>
       <c r="J16" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K16">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="L16">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="M16" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="2">
-        <v>45555.73194580141</v>
+        <v>45555.75029756406</v>
       </c>
       <c r="B17" t="s">
         <v>13</v>
@@ -1153,39 +1141,39 @@
         <v>14</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" t="s">
+        <v>24</v>
+      </c>
+      <c r="I17" t="s">
         <v>26</v>
       </c>
-      <c r="F17" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H17" t="s">
-        <v>26</v>
-      </c>
-      <c r="I17" t="s">
-        <v>29</v>
-      </c>
       <c r="J17" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K17">
-        <v>1292</v>
+        <v>73</v>
       </c>
       <c r="L17">
-        <v>1284</v>
+        <v>65</v>
       </c>
       <c r="M17" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="2">
-        <v>45555.73194580497</v>
+        <v>45555.75029756805</v>
       </c>
       <c r="B18" t="s">
         <v>13</v>
@@ -1194,121 +1182,121 @@
         <v>14</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" t="s">
+        <v>24</v>
+      </c>
+      <c r="I18" t="s">
         <v>26</v>
       </c>
-      <c r="F18" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" t="s">
-        <v>20</v>
-      </c>
-      <c r="H18" t="s">
-        <v>26</v>
-      </c>
-      <c r="I18" t="s">
-        <v>29</v>
-      </c>
       <c r="J18" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K18">
-        <v>73</v>
+        <v>1288</v>
       </c>
       <c r="L18">
-        <v>65</v>
+        <v>1280</v>
       </c>
       <c r="M18" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="2">
-        <v>45555.73194583641</v>
+        <v>45555.75029756838</v>
       </c>
       <c r="B19" t="s">
         <v>13</v>
       </c>
       <c r="C19" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D19" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" t="s">
+        <v>19</v>
+      </c>
+      <c r="H19" t="s">
+        <v>24</v>
+      </c>
+      <c r="I19" t="s">
         <v>26</v>
       </c>
-      <c r="F19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" t="s">
-        <v>21</v>
-      </c>
-      <c r="H19" t="s">
-        <v>26</v>
-      </c>
-      <c r="I19" t="s">
-        <v>31</v>
-      </c>
       <c r="J19" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K19">
-        <v>66</v>
+        <v>1292</v>
       </c>
       <c r="L19">
-        <v>58</v>
+        <v>1284</v>
       </c>
       <c r="M19" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="2">
-        <v>45555.73194592414</v>
+        <v>45555.75029756866</v>
       </c>
       <c r="B20" t="s">
         <v>13</v>
       </c>
       <c r="C20" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D20" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20" t="s">
+        <v>24</v>
+      </c>
+      <c r="I20" t="s">
         <v>26</v>
       </c>
-      <c r="F20" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" t="s">
-        <v>21</v>
-      </c>
-      <c r="H20" t="s">
-        <v>26</v>
-      </c>
-      <c r="I20" t="s">
-        <v>31</v>
-      </c>
       <c r="J20" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K20">
-        <v>64</v>
+        <v>1292</v>
       </c>
       <c r="L20">
-        <v>56</v>
+        <v>1284</v>
       </c>
       <c r="M20" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="2">
-        <v>45555.7319459283</v>
+        <v>45555.75029756891</v>
       </c>
       <c r="B21" t="s">
         <v>13</v>
@@ -1317,80 +1305,80 @@
         <v>14</v>
       </c>
       <c r="D21" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" t="s">
+        <v>19</v>
+      </c>
+      <c r="H21" t="s">
+        <v>24</v>
+      </c>
+      <c r="I21" t="s">
         <v>26</v>
       </c>
-      <c r="F21" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" t="s">
-        <v>20</v>
-      </c>
-      <c r="H21" t="s">
-        <v>26</v>
-      </c>
-      <c r="I21" t="s">
-        <v>29</v>
-      </c>
       <c r="J21" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K21">
-        <v>73</v>
+        <v>1292</v>
       </c>
       <c r="L21">
-        <v>65</v>
+        <v>1284</v>
       </c>
       <c r="M21" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="2">
-        <v>45555.73194642715</v>
+        <v>45555.75029756963</v>
       </c>
       <c r="B22" t="s">
         <v>13</v>
       </c>
       <c r="C22" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E22" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" t="s">
+        <v>19</v>
+      </c>
+      <c r="H22" t="s">
+        <v>24</v>
+      </c>
+      <c r="I22" t="s">
         <v>26</v>
       </c>
-      <c r="F22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" t="s">
-        <v>21</v>
-      </c>
-      <c r="H22" t="s">
-        <v>26</v>
-      </c>
-      <c r="I22" t="s">
-        <v>31</v>
-      </c>
       <c r="J22" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K22">
-        <v>162</v>
+        <v>818</v>
       </c>
       <c r="L22">
-        <v>154</v>
+        <v>810</v>
       </c>
       <c r="M22" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="2">
-        <v>45555.73194672217</v>
+        <v>45555.75029756985</v>
       </c>
       <c r="B23" t="s">
         <v>13</v>
@@ -1399,230 +1387,230 @@
         <v>14</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E23" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" t="s">
+        <v>19</v>
+      </c>
+      <c r="H23" t="s">
+        <v>24</v>
+      </c>
+      <c r="I23" t="s">
         <v>26</v>
       </c>
-      <c r="F23" t="s">
-        <v>16</v>
-      </c>
-      <c r="G23" t="s">
-        <v>20</v>
-      </c>
-      <c r="H23" t="s">
-        <v>26</v>
-      </c>
-      <c r="I23" t="s">
-        <v>29</v>
-      </c>
       <c r="J23" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K23">
-        <v>74</v>
+        <v>148</v>
       </c>
       <c r="L23">
-        <v>66</v>
+        <v>140</v>
       </c>
       <c r="M23" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="2">
-        <v>45555.73194765326</v>
+        <v>45555.75029783449</v>
       </c>
       <c r="B24" t="s">
         <v>13</v>
       </c>
       <c r="C24" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E24" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F24" t="s">
         <v>14</v>
       </c>
       <c r="G24" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H24" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I24" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J24" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K24">
-        <v>241</v>
+        <v>66</v>
       </c>
       <c r="L24">
-        <v>233</v>
+        <v>58</v>
       </c>
       <c r="M24" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="2">
-        <v>45555.73194765423</v>
+        <v>45555.75029798</v>
       </c>
       <c r="B25" t="s">
         <v>13</v>
       </c>
       <c r="C25" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E25" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F25" t="s">
         <v>14</v>
       </c>
       <c r="G25" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H25" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I25" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J25" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K25">
-        <v>63</v>
+        <v>162</v>
       </c>
       <c r="L25">
-        <v>55</v>
+        <v>154</v>
       </c>
       <c r="M25" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="2">
-        <v>45555.73194765903</v>
+        <v>45555.75029806699</v>
       </c>
       <c r="B26" t="s">
         <v>13</v>
       </c>
       <c r="C26" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D26" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E26" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F26" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G26" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H26" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J26" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K26">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="L26">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="M26" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="2">
-        <v>45555.73194771213</v>
+        <v>45555.75029806804</v>
       </c>
       <c r="B27" t="s">
         <v>13</v>
       </c>
       <c r="C27" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D27" t="s">
         <v>19</v>
       </c>
       <c r="E27" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G27" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H27" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J27" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K27">
-        <v>352</v>
+        <v>67</v>
       </c>
       <c r="L27">
-        <v>344</v>
+        <v>59</v>
       </c>
       <c r="M27" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="2">
-        <v>45555.73194809023</v>
+        <v>45555.7502980686</v>
       </c>
       <c r="B28" t="s">
         <v>13</v>
       </c>
       <c r="C28" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E28" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F28" t="s">
         <v>14</v>
       </c>
       <c r="G28" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H28" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I28" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J28" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K28">
         <v>67</v>
@@ -1631,53 +1619,53 @@
         <v>59</v>
       </c>
       <c r="M28" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="2">
-        <v>45555.7319482851</v>
+        <v>45555.75029807838</v>
       </c>
       <c r="B29" t="s">
         <v>13</v>
       </c>
       <c r="C29" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E29" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F29" t="s">
         <v>14</v>
       </c>
       <c r="G29" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H29" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I29" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="J29" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K29">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="L29">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="M29" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="2">
-        <v>45555.73194841014</v>
+        <v>45555.75029827912</v>
       </c>
       <c r="B30" t="s">
         <v>13</v>
@@ -1686,203 +1674,203 @@
         <v>14</v>
       </c>
       <c r="D30" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E30" t="s">
+        <v>24</v>
+      </c>
+      <c r="F30" t="s">
+        <v>17</v>
+      </c>
+      <c r="G30" t="s">
+        <v>19</v>
+      </c>
+      <c r="H30" t="s">
+        <v>24</v>
+      </c>
+      <c r="I30" t="s">
         <v>26</v>
       </c>
-      <c r="F30" t="s">
-        <v>15</v>
-      </c>
-      <c r="G30" t="s">
-        <v>20</v>
-      </c>
-      <c r="H30" t="s">
-        <v>26</v>
-      </c>
-      <c r="I30" t="s">
-        <v>29</v>
-      </c>
       <c r="J30" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K30">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L30">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M30" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="2">
-        <v>45555.7319500752</v>
+        <v>45555.75029836146</v>
       </c>
       <c r="B31" t="s">
         <v>13</v>
       </c>
       <c r="C31" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D31" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E31" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F31" t="s">
         <v>14</v>
       </c>
       <c r="G31" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H31" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I31" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="J31" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K31">
-        <v>137</v>
+        <v>72</v>
       </c>
       <c r="L31">
-        <v>129</v>
+        <v>64</v>
       </c>
       <c r="M31" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="2">
-        <v>45555.7319502019</v>
+        <v>45555.75029842633</v>
       </c>
       <c r="B32" t="s">
         <v>13</v>
       </c>
       <c r="C32" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D32" t="s">
         <v>19</v>
       </c>
       <c r="E32" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G32" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H32" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J32" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K32">
-        <v>81</v>
+        <v>1288</v>
       </c>
       <c r="L32">
-        <v>73</v>
+        <v>1280</v>
       </c>
       <c r="M32" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="2">
-        <v>45555.73195078538</v>
+        <v>45555.75029842752</v>
       </c>
       <c r="B33" t="s">
         <v>13</v>
       </c>
       <c r="C33" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D33" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E33" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F33" t="s">
         <v>14</v>
       </c>
       <c r="G33" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H33" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I33" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="J33" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K33">
-        <v>68</v>
+        <v>396</v>
       </c>
       <c r="L33">
-        <v>60</v>
+        <v>388</v>
       </c>
       <c r="M33" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="2">
-        <v>45555.73197942886</v>
+        <v>45555.75029842954</v>
       </c>
       <c r="B34" t="s">
         <v>13</v>
       </c>
       <c r="C34" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D34" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E34" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F34" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G34" t="s">
         <v>23</v>
       </c>
       <c r="H34" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J34" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K34">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="L34">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="M34" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="2">
-        <v>45555.73197942926</v>
+        <v>45555.75029843072</v>
       </c>
       <c r="B35" t="s">
         <v>13</v>
@@ -1891,80 +1879,80 @@
         <v>14</v>
       </c>
       <c r="D35" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E35" t="s">
+        <v>24</v>
+      </c>
+      <c r="F35" t="s">
+        <v>17</v>
+      </c>
+      <c r="G35" t="s">
+        <v>19</v>
+      </c>
+      <c r="H35" t="s">
+        <v>24</v>
+      </c>
+      <c r="I35" t="s">
         <v>26</v>
       </c>
-      <c r="F35" t="s">
-        <v>17</v>
-      </c>
-      <c r="G35" t="s">
-        <v>23</v>
-      </c>
-      <c r="H35" t="s">
-        <v>27</v>
-      </c>
-      <c r="I35" t="s">
-        <v>29</v>
-      </c>
       <c r="J35" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K35">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="L35">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="M35" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="2">
-        <v>45555.73197951738</v>
+        <v>45555.75029843353</v>
       </c>
       <c r="B36" t="s">
         <v>13</v>
       </c>
       <c r="C36" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D36" t="s">
         <v>23</v>
       </c>
       <c r="E36" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F36" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G36" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H36" t="s">
+        <v>24</v>
+      </c>
+      <c r="I36" t="s">
         <v>26</v>
       </c>
-      <c r="I36" t="s">
-        <v>29</v>
-      </c>
       <c r="J36" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K36">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="L36">
-        <v>127</v>
+        <v>69</v>
       </c>
       <c r="M36" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="2">
-        <v>45555.7319798371</v>
+        <v>45555.75029844407</v>
       </c>
       <c r="B37" t="s">
         <v>13</v>
@@ -1973,39 +1961,39 @@
         <v>17</v>
       </c>
       <c r="D37" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E37" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F37" t="s">
         <v>14</v>
       </c>
       <c r="G37" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H37" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I37" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J37" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K37">
-        <v>111</v>
+        <v>260</v>
       </c>
       <c r="L37">
-        <v>103</v>
+        <v>252</v>
       </c>
       <c r="M37" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="2">
-        <v>45555.73197984266</v>
+        <v>45555.75029876504</v>
       </c>
       <c r="B38" t="s">
         <v>13</v>
@@ -2014,75 +2002,157 @@
         <v>14</v>
       </c>
       <c r="D38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E38" t="s">
+        <v>24</v>
+      </c>
+      <c r="F38" t="s">
+        <v>17</v>
+      </c>
+      <c r="G38" t="s">
+        <v>19</v>
+      </c>
+      <c r="H38" t="s">
+        <v>24</v>
+      </c>
+      <c r="I38" t="s">
         <v>26</v>
       </c>
-      <c r="F38" t="s">
-        <v>18</v>
-      </c>
-      <c r="G38" t="s">
-        <v>25</v>
-      </c>
-      <c r="H38" t="s">
-        <v>28</v>
-      </c>
-      <c r="I38" t="s">
-        <v>29</v>
-      </c>
       <c r="J38" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K38">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="L38">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="M38" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="2">
-        <v>45555.73198012795</v>
+        <v>45555.75029912379</v>
       </c>
       <c r="B39" t="s">
         <v>13</v>
       </c>
       <c r="C39" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" t="s">
+        <v>19</v>
+      </c>
+      <c r="E39" t="s">
+        <v>24</v>
+      </c>
+      <c r="F39" t="s">
+        <v>14</v>
+      </c>
+      <c r="G39" t="s">
+        <v>23</v>
+      </c>
+      <c r="H39" t="s">
+        <v>24</v>
+      </c>
+      <c r="I39" t="s">
+        <v>28</v>
+      </c>
+      <c r="J39" t="s">
+        <v>29</v>
+      </c>
+      <c r="K39">
+        <v>66</v>
+      </c>
+      <c r="L39">
+        <v>58</v>
+      </c>
+      <c r="M39" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" s="2">
+        <v>45555.75035973338</v>
+      </c>
+      <c r="B40" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" t="s">
+        <v>19</v>
+      </c>
+      <c r="E40" t="s">
+        <v>24</v>
+      </c>
+      <c r="F40" t="s">
+        <v>14</v>
+      </c>
+      <c r="G40" t="s">
         <v>18</v>
       </c>
-      <c r="D39" t="s">
-        <v>25</v>
-      </c>
-      <c r="E39" t="s">
-        <v>28</v>
-      </c>
-      <c r="F39" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39" t="s">
-        <v>24</v>
-      </c>
-      <c r="H39" t="s">
+      <c r="H40" t="s">
+        <v>24</v>
+      </c>
+      <c r="I40" t="s">
+        <v>27</v>
+      </c>
+      <c r="J40" t="s">
+        <v>29</v>
+      </c>
+      <c r="K40">
+        <v>120</v>
+      </c>
+      <c r="L40">
+        <v>112</v>
+      </c>
+      <c r="M40" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="2">
+        <v>45555.75036003398</v>
+      </c>
+      <c r="B41" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" t="s">
+        <v>18</v>
+      </c>
+      <c r="E41" t="s">
+        <v>24</v>
+      </c>
+      <c r="F41" t="s">
+        <v>15</v>
+      </c>
+      <c r="G41" t="s">
+        <v>19</v>
+      </c>
+      <c r="H41" t="s">
+        <v>24</v>
+      </c>
+      <c r="I41" t="s">
         <v>26</v>
       </c>
-      <c r="I39" t="s">
-        <v>32</v>
-      </c>
-      <c r="J39" t="s">
-        <v>33</v>
-      </c>
-      <c r="K39">
-        <v>90</v>
-      </c>
-      <c r="L39">
-        <v>82</v>
-      </c>
-      <c r="M39" t="s">
-        <v>34</v>
+      <c r="J41" t="s">
+        <v>29</v>
+      </c>
+      <c r="K41">
+        <v>74</v>
+      </c>
+      <c r="L41">
+        <v>66</v>
+      </c>
+      <c r="M41" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
